--- a/BackTest/2020-01-12 BackTest AMO.xlsx
+++ b/BackTest/2020-01-12 BackTest AMO.xlsx
@@ -13337,10 +13337,10 @@
         <v>0</v>
       </c>
       <c r="J370" t="n">
-        <v>0.2546</v>
+        <v>0.2549</v>
       </c>
       <c r="K370" t="n">
-        <v>0.2546</v>
+        <v>0.2549</v>
       </c>
       <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
@@ -13376,10 +13376,10 @@
         <v>0</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2564</v>
+        <v>0.2546</v>
       </c>
       <c r="K371" t="n">
-        <v>0.2546</v>
+        <v>0.2549</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13419,10 +13419,10 @@
         <v>0</v>
       </c>
       <c r="J372" t="n">
-        <v>0.2551</v>
+        <v>0.2564</v>
       </c>
       <c r="K372" t="n">
-        <v>0.2546</v>
+        <v>0.2549</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -13491,17 +13491,13 @@
         <v>0.2569366666666668</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="K374" t="n">
-        <v>0.2549</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
@@ -13530,22 +13526,14 @@
         <v>0.2568950000000001</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="K375" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13573,22 +13561,14 @@
         <v>0.2568450000000001</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="K376" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13616,17 +13596,13 @@
         <v>0.2568066666666667</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="K377" t="n">
-        <v>0.2554</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
@@ -13655,22 +13631,14 @@
         <v>0.2567733333333334</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>0.2563</v>
-      </c>
-      <c r="K378" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13698,22 +13666,14 @@
         <v>0.2567466666666667</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="K379" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13741,17 +13701,13 @@
         <v>0.2567116666666667</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="K380" t="n">
-        <v>0.2556</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
@@ -13780,22 +13736,14 @@
         <v>0.2566583333333334</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="K381" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13823,22 +13771,14 @@
         <v>0.2566150000000001</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="K382" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13866,22 +13806,14 @@
         <v>0.2565783333333334</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="K383" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13909,22 +13841,14 @@
         <v>0.2565716666666668</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K384" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13952,22 +13876,14 @@
         <v>0.2565516666666668</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="K385" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13995,22 +13911,14 @@
         <v>0.2565283333333335</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K386" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14038,22 +13946,14 @@
         <v>0.2564900000000001</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="K387" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14087,14 +13987,8 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14122,22 +14016,14 @@
         <v>0.2563900000000001</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>0.2555</v>
-      </c>
-      <c r="K389" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14171,14 +14057,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14206,22 +14086,14 @@
         <v>0.2563033333333334</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>0.2562</v>
-      </c>
-      <c r="K391" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14249,22 +14121,14 @@
         <v>0.2562633333333334</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="K392" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14292,22 +14156,14 @@
         <v>0.2562016666666668</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="K393" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14335,22 +14191,14 @@
         <v>0.2561633333333334</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K394" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14378,22 +14226,14 @@
         <v>0.2561266666666667</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>0.2561</v>
-      </c>
-      <c r="K395" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14421,22 +14261,14 @@
         <v>0.2560683333333334</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="K396" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14464,22 +14296,14 @@
         <v>0.2560300000000001</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="K397" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14507,22 +14331,14 @@
         <v>0.2559816666666667</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>0.2559</v>
-      </c>
-      <c r="K398" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14550,22 +14366,14 @@
         <v>0.2559116666666668</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K399" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14593,22 +14401,14 @@
         <v>0.2558800000000001</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K400" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14636,22 +14436,14 @@
         <v>0.2558466666666667</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>0.2555</v>
-      </c>
-      <c r="K401" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14679,22 +14471,14 @@
         <v>0.2558266666666668</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="K402" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14722,22 +14506,14 @@
         <v>0.2557733333333335</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K403" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14765,22 +14541,14 @@
         <v>0.2557316666666668</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="K404" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14808,22 +14576,14 @@
         <v>0.2557200000000001</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K405" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14851,22 +14611,14 @@
         <v>0.2556633333333335</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="K406" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14894,22 +14646,14 @@
         <v>0.2556433333333334</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="K407" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14937,22 +14681,14 @@
         <v>0.2555983333333334</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="K408" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14980,22 +14716,14 @@
         <v>0.2555683333333334</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="K409" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15023,22 +14751,14 @@
         <v>0.2555400000000001</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="K410" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15066,22 +14786,14 @@
         <v>0.2555350000000001</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="K411" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15109,22 +14821,14 @@
         <v>0.2555400000000001</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="K412" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15152,22 +14856,14 @@
         <v>0.2555100000000001</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>0.2563</v>
-      </c>
-      <c r="K413" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15195,22 +14891,14 @@
         <v>0.2554950000000001</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="K414" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15238,22 +14926,14 @@
         <v>0.2554783333333334</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="K415" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15281,22 +14961,14 @@
         <v>0.2554850000000001</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="K416" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15324,22 +14996,14 @@
         <v>0.2555250000000001</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="K417" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15367,22 +15031,14 @@
         <v>0.2555400000000001</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="K418" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15410,22 +15066,14 @@
         <v>0.2555450000000001</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="K419" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15453,22 +15101,14 @@
         <v>0.2556183333333334</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="K420" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15496,22 +15136,14 @@
         <v>0.2556600000000001</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>0.2576</v>
-      </c>
-      <c r="K421" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15545,14 +15177,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15586,14 +15212,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15627,14 +15247,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15668,14 +15282,8 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15709,14 +15317,8 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15750,14 +15352,8 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15791,14 +15387,8 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15832,14 +15422,8 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15873,14 +15457,8 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15914,14 +15492,8 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15955,14 +15527,8 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15996,14 +15562,8 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16037,14 +15597,8 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16078,14 +15632,8 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16119,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16160,14 +15702,8 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16201,14 +15737,8 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16242,14 +15772,8 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16283,14 +15807,8 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16324,14 +15842,8 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16365,14 +15877,8 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16406,14 +15912,8 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16447,14 +15947,8 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16488,14 +15982,8 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16529,14 +16017,8 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16570,14 +16052,8 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16611,14 +16087,8 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16652,14 +16122,8 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16693,14 +16157,8 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16734,14 +16192,8 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16775,14 +16227,8 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16816,14 +16262,8 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16857,14 +16297,8 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16898,14 +16332,8 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16939,14 +16367,8 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16980,14 +16402,8 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17021,14 +16437,8 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17062,14 +16472,8 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17103,14 +16507,8 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17144,14 +16542,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17185,14 +16577,8 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17226,14 +16612,8 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17267,14 +16647,8 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17308,14 +16682,8 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17349,14 +16717,8 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17390,14 +16752,8 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17431,14 +16787,8 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17472,14 +16822,8 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17513,14 +16857,8 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17554,14 +16892,8 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17595,14 +16927,8 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17636,14 +16962,8 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17677,14 +16997,8 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17718,14 +17032,8 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17759,14 +17067,8 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17800,14 +17102,8 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17841,14 +17137,8 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17882,14 +17172,8 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17923,14 +17207,8 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17964,14 +17242,8 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18005,14 +17277,8 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18046,14 +17312,8 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18087,14 +17347,8 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18128,14 +17382,8 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18169,14 +17417,8 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18210,14 +17452,8 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18251,14 +17487,8 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18292,14 +17522,8 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18333,14 +17557,8 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18374,14 +17592,8 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18415,14 +17627,8 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18456,14 +17662,8 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18497,14 +17697,8 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18538,14 +17732,8 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18579,14 +17767,8 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18620,14 +17802,8 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18661,14 +17837,8 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18702,14 +17872,8 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18743,14 +17907,8 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18784,14 +17942,8 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18825,14 +17977,8 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18866,14 +18012,8 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18907,14 +18047,8 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18948,14 +18082,8 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18989,14 +18117,8 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19030,14 +18152,8 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19071,14 +18187,8 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19112,14 +18222,8 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19153,14 +18257,8 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19194,14 +18292,8 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19235,14 +18327,8 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19276,14 +18362,8 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19317,14 +18397,8 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19358,14 +18432,8 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19399,14 +18467,8 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19440,14 +18502,8 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19481,14 +18537,8 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19522,14 +18572,8 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19563,14 +18607,8 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19604,14 +18642,8 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19645,14 +18677,8 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19686,14 +18712,8 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19727,14 +18747,8 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19768,14 +18782,8 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19809,14 +18817,8 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19850,14 +18852,8 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19891,14 +18887,8 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19932,14 +18922,8 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19973,14 +18957,8 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20014,14 +18992,8 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20055,14 +19027,8 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20096,14 +19062,8 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20137,14 +19097,8 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20178,14 +19132,8 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20219,14 +19167,8 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20260,14 +19202,8 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20301,14 +19237,8 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20342,14 +19272,8 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20383,14 +19307,8 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20424,14 +19342,8 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20465,14 +19377,8 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20506,14 +19412,8 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20547,14 +19447,8 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20588,14 +19482,8 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20629,14 +19517,8 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20670,14 +19552,8 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20711,14 +19587,8 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20752,14 +19622,8 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20793,14 +19657,8 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20834,14 +19692,8 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20875,14 +19727,8 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20916,14 +19762,8 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20957,14 +19797,8 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20998,14 +19832,8 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21039,14 +19867,8 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21080,14 +19902,8 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21121,14 +19937,8 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21162,14 +19972,8 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21203,14 +20007,8 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21244,14 +20042,8 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21282,17 +20074,11 @@
         <v>0</v>
       </c>
       <c r="I562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21323,19 +20109,13 @@
         <v>0</v>
       </c>
       <c r="I563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
-        <v>1.014953051643193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -21364,7 +20144,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
@@ -22551,14 +21331,20 @@
         <v>0.2574050000000001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>0.2569</v>
+      </c>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22593,7 +21379,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22621,14 +21411,20 @@
         <v>0.2574250000000001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>0.2564</v>
+      </c>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22663,7 +21459,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22698,7 +21498,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22733,7 +21537,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22761,14 +21569,20 @@
         <v>0.2574583333333334</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>0.2568</v>
+      </c>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22796,14 +21610,20 @@
         <v>0.2574416666666667</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>0.2569</v>
+      </c>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22831,14 +21651,20 @@
         <v>0.2574533333333334</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>0.2562</v>
+      </c>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22873,7 +21699,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22908,7 +21738,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22943,7 +21777,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22978,7 +21816,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23013,7 +21855,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23048,7 +21894,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23083,7 +21933,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23118,7 +21972,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23153,7 +22011,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23188,7 +22050,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23223,7 +22089,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23258,7 +22128,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23293,7 +22167,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23328,7 +22206,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23363,7 +22245,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23398,7 +22284,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23433,7 +22323,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23468,7 +22362,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23503,7 +22401,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23538,7 +22440,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23573,7 +22479,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23608,7 +22518,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23643,7 +22557,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23678,7 +22596,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23709,11 +22631,15 @@
         <v>0</v>
       </c>
       <c r="I631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23748,7 +22674,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23783,7 +22713,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23818,7 +22752,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23853,7 +22791,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23888,7 +22830,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23923,7 +22869,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23958,7 +22908,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23993,7 +22947,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24028,7 +22986,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24063,7 +23025,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest AMO.xlsx
+++ b/BackTest/2020-01-12 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,7 +1375,7 @@
         <v>-6605176.944199999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-8725804.720199997</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9992747.295199996</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-13264023.7712</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-13467442.0682</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-13314878.3452</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-10764041.67019999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-10653856.75919999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-13006450.89719998</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-13900459.92719998</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-14904653.86819998</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-15646099.17519998</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-13629235.53019998</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-14794468.95619998</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-14256441.94619998</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-15472529.94719998</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-11978730.49219998</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-11093197.22419998</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-11091237.22419998</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-9722585.500199983</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-9586973.302199982</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-11091237.22419998</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-12188664.55119998</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-11260752.47119998</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-9773440.074199982</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-11065809.93619998</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-11065809.93619998</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-11082761.46019998</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-9875149.22219998</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-9875149.22219998</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-10036188.70819998</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-11396364.66919998</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-10705773.93619998</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-10934619.52019998</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-12447359.20419998</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-12447359.20419998</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-11222795.44119998</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-12311747.00619998</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-8591255.124199979</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-10010761.42219998</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-9917528.036199979</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-9159131.204199979</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-9159131.204199979</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-10188752.43219998</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-8371690.58569998</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-10903130.02329998</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-10903130.02329998</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-12093790.73729998</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-12091487.47429998</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13129584.46529998</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-12074535.95029998</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-13400808.86229998</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-12574605.93129998</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-10663628.55549998</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-10282219.24849998</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-10282219.24849998</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-11057567.60549998</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-10053373.66449998</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-9150888.87149998</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-8078888.83149998</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-9261073.78249998</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-10977231.76449998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-10269689.50649998</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-11434922.93249998</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-10040843.92149998</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-9248544.039499983</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-10388350.17849998</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-9172262.177499983</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-10422253.22749998</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-9536719.959499985</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-10490059.32649999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-11858711.05049998</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-10473107.80249999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-11994323.24849999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-13498587.17049999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-12401159.84349999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-2673247.763499986</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1185935.366499986</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2478305.228499986</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-3296032.397499986</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>3255577.149000014</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>2209004.396000014</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-6197754.447199985</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-5507163.714199985</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-8341912.388199985</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-7236009.298199985</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-5723269.614199985</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-6642705.931199985</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-7867269.694199985</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-7168203.199199985</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-7158203.199199985</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-9247154.764199985</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-10192018.36919999</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-10492887.69209998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-11963248.56409998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-19586027.96739998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-19586027.96739998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-20564794.62139998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-20564794.62139998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-19035103.41239998</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-20463085.47239998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-21763931.09639999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-20997058.50139999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-21746979.57139999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-29092111.45279999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-57029161.40169999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-58507998.03569999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-58330007.02569999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-57393619.18369999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-57520755.61969998</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-56663725.60429998</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14245,11 +14245,17 @@
         <v>-64981815.92299998</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.2545</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,15 +14284,17 @@
         <v>-63994573.50699998</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>0.2551</v>
       </c>
-      <c r="J421" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,15 +14323,15 @@
         <v>-65202185.74499997</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>0.2551</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.2557</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L422" t="n">
@@ -14354,17 +14362,15 @@
         <v>-64155612.99199998</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>0.2547</v>
       </c>
-      <c r="J423" t="n">
-        <v>0.2551</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L423" t="n">
@@ -14395,15 +14401,17 @@
         <v>-63142943.28799997</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>0.2548</v>
       </c>
-      <c r="J424" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14432,17 +14440,15 @@
         <v>-62291313.06999997</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>0.2554</v>
       </c>
-      <c r="J425" t="n">
-        <v>0.2548</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L425" t="n">
@@ -14473,17 +14479,15 @@
         <v>-60931137.10899997</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>0.2556</v>
       </c>
-      <c r="J426" t="n">
-        <v>0.2548</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
@@ -14514,15 +14518,17 @@
         <v>-61621727.84199997</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0.2557</v>
       </c>
-      <c r="J427" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14551,15 +14557,15 @@
         <v>-60286979.16799997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.2557</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L428" t="n">
@@ -14590,17 +14596,15 @@
         <v>-61392882.25799997</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>0.2549</v>
       </c>
-      <c r="J429" t="n">
-        <v>0.2557</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14631,11 +14635,17 @@
         <v>-59880142.57399997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.2546</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14664,11 +14674,17 @@
         <v>-60799578.89099997</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.2564</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14697,11 +14713,17 @@
         <v>-59575015.12799998</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.2551</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14730,15 +14752,15 @@
         <v>-60274081.62299997</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="J433" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="K433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14767,15 +14789,15 @@
         <v>-61419813.85309997</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.2557</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.2549</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L434" t="n">
@@ -14806,17 +14828,15 @@
         <v>-60330862.28809997</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>0.2544</v>
       </c>
-      <c r="J435" t="n">
-        <v>0.2557</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L435" t="n">
@@ -14847,11 +14867,17 @@
         <v>-59385998.68309998</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.2548</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14880,15 +14906,17 @@
         <v>-57915637.81109998</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>0.2554</v>
       </c>
-      <c r="J437" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14917,15 +14945,15 @@
         <v>-59377522.92109998</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.2563</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L438" t="n">
@@ -14956,15 +14984,15 @@
         <v>-58517416.94009998</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
         <v>0.2554</v>
       </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L439" t="n">
@@ -14995,11 +15023,17 @@
         <v>-61525329.68049998</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.2556</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +15062,17 @@
         <v>-60504184.21449998</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.2551</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15061,11 +15101,17 @@
         <v>-62033875.42349998</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.256</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15094,11 +15140,17 @@
         <v>-60605893.36349998</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.2551</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +15179,17 @@
         <v>-61906738.98749997</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15160,11 +15218,17 @@
         <v>-61139866.39249998</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.2558</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +15261,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +15298,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15335,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15296,7 +15372,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15329,7 +15409,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +15446,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15395,7 +15483,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +15516,17 @@
         <v>-61558448.13449998</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.2548</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15457,11 +15555,17 @@
         <v>-62554166.31349998</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.2567</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15490,11 +15594,17 @@
         <v>-63422748.05649998</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.2561</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15523,11 +15633,17 @@
         <v>-62588069.36249998</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.2553</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15556,11 +15672,17 @@
         <v>-61778817.95649998</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.2556</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15589,11 +15711,17 @@
         <v>-63215275.77949998</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.2559</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15622,11 +15750,17 @@
         <v>-61795769.48149998</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.255</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15659,7 +15793,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15688,11 +15826,17 @@
         <v>-61889002.86749998</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.2555</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15721,15 +15865,17 @@
         <v>-62647399.69949998</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>0.2558</v>
       </c>
-      <c r="J462" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15758,17 +15904,15 @@
         <v>-61931381.67949998</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>0.255</v>
       </c>
-      <c r="J463" t="n">
-        <v>0.2558</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L463" t="n">
@@ -15799,17 +15943,15 @@
         <v>-60901760.45149998</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>0.256</v>
       </c>
-      <c r="J464" t="n">
-        <v>0.2558</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L464" t="n">
@@ -15844,7 +15986,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15873,11 +16019,17 @@
         <v>-61571345.67949998</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.2551</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15906,11 +16058,17 @@
         <v>-62533160.80849998</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.2557</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15939,15 +16097,17 @@
         <v>-63876385.24449997</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>0.2556</v>
       </c>
-      <c r="J468" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15976,17 +16136,15 @@
         <v>-65143327.81949998</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>0.2547</v>
       </c>
-      <c r="J469" t="n">
-        <v>0.2556</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L469" t="n">
@@ -16017,17 +16175,15 @@
         <v>-64342552.17549998</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>0.2546</v>
       </c>
-      <c r="J470" t="n">
-        <v>0.2556</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L470" t="n">
@@ -16058,15 +16214,17 @@
         <v>-63499397.71949998</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>0.2558</v>
       </c>
-      <c r="J471" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16095,17 +16253,15 @@
         <v>-64901952.49249998</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>0.2566</v>
       </c>
-      <c r="J472" t="n">
-        <v>0.2558</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L472" t="n">
@@ -16136,17 +16292,15 @@
         <v>-66397740.65149998</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>0.2563</v>
       </c>
-      <c r="J473" t="n">
-        <v>0.2558</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L473" t="n">
@@ -16177,15 +16331,17 @@
         <v>-65486780.09649998</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>0.2552</v>
       </c>
-      <c r="J474" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16214,17 +16370,15 @@
         <v>-66745246.90949998</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>0.2558</v>
       </c>
-      <c r="J475" t="n">
-        <v>0.2552</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L475" t="n">
@@ -16255,17 +16409,15 @@
         <v>-63549480.39499998</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>0.2557</v>
       </c>
-      <c r="J476" t="n">
-        <v>0.2552</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L476" t="n">
@@ -16296,15 +16448,17 @@
         <v>-64680810.77199998</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>0.257</v>
       </c>
-      <c r="J477" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16333,17 +16487,15 @@
         <v>-65795189.62399998</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>0.2557</v>
       </c>
-      <c r="J478" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L478" t="n">
@@ -16374,17 +16526,15 @@
         <v>-64670395.00999998</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>0.2553</v>
       </c>
-      <c r="J479" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L479" t="n">
@@ -16415,14 +16565,10 @@
         <v>-65750870.81299998</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>0.2589</v>
-      </c>
-      <c r="J480" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16459,9 +16605,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16498,9 +16642,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16537,9 +16679,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16576,9 +16716,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16615,9 +16753,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16651,14 +16787,10 @@
         <v>-67229049.72229998</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>0.2568</v>
-      </c>
-      <c r="J486" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16692,14 +16824,10 @@
         <v>-68606177.20829998</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>0.2589</v>
-      </c>
-      <c r="J487" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16736,9 +16864,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16775,9 +16901,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16814,9 +16938,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16853,9 +16975,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16892,9 +17012,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16931,9 +17049,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16970,9 +17086,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17009,9 +17123,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17048,9 +17160,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17087,9 +17197,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17126,9 +17234,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17165,9 +17271,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17204,9 +17308,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17243,9 +17345,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17282,9 +17382,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17321,9 +17419,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17360,9 +17456,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17399,9 +17493,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17438,9 +17530,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17477,9 +17567,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17516,9 +17604,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17555,9 +17641,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17594,9 +17678,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17633,9 +17715,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17672,9 +17752,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17711,9 +17789,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17750,9 +17826,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17789,9 +17863,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17828,9 +17900,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17867,9 +17937,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17906,9 +17974,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17945,9 +18011,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17984,9 +18048,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18023,9 +18085,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18062,9 +18122,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18101,9 +18159,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18140,9 +18196,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18179,9 +18233,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18218,9 +18270,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18257,9 +18307,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18296,9 +18344,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18335,9 +18381,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18374,9 +18418,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18413,9 +18455,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18452,9 +18492,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18491,9 +18529,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18530,9 +18566,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18569,9 +18603,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18608,9 +18640,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18647,9 +18677,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18686,9 +18714,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18725,9 +18751,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18764,9 +18788,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18803,9 +18825,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18842,9 +18862,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18881,9 +18899,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18920,9 +18936,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18959,9 +18973,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18998,9 +19010,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19037,9 +19047,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19076,9 +19084,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19115,9 +19121,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19154,9 +19158,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19193,9 +19195,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19232,9 +19232,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19271,9 +19269,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19310,9 +19306,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19349,9 +19343,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19388,9 +19380,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19427,9 +19417,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19466,9 +19454,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19505,9 +19491,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19544,9 +19528,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19583,9 +19565,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19622,9 +19602,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19661,9 +19639,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19700,9 +19676,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19739,9 +19713,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19778,9 +19750,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19817,9 +19787,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19856,9 +19824,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19895,9 +19861,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19934,9 +19898,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19973,9 +19935,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20012,9 +19972,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20051,9 +20009,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20090,9 +20046,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20129,9 +20083,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20168,9 +20120,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20207,9 +20157,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20246,9 +20194,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20285,9 +20231,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20324,9 +20268,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20363,9 +20305,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20402,9 +20342,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20441,9 +20379,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20480,9 +20416,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20519,9 +20453,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20558,9 +20490,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20597,9 +20527,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20636,9 +20564,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20675,9 +20601,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20714,9 +20638,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20753,9 +20675,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20789,12 +20709,12 @@
         <v>-73414994.97289997</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>0.257</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20831,9 +20751,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20867,12 +20785,12 @@
         <v>-73406519.21089998</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>0.257</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20909,9 +20827,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20945,12 +20861,12 @@
         <v>-73677743.60689998</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
         <v>0.257</v>
       </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20984,14 +20900,10 @@
         <v>-72393849.50689998</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>0.2561</v>
-      </c>
-      <c r="J597" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,9 +20940,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21067,9 +20977,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21106,9 +21014,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21145,9 +21051,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21181,12 +21085,12 @@
         <v>-73355664.63589998</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>0.257</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21223,9 +21127,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21259,12 +21161,12 @@
         <v>-71262519.12989998</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>0.257</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21301,9 +21203,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21337,14 +21237,12 @@
         <v>-71762589.11089998</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>0.2553</v>
       </c>
-      <c r="J606" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21378,14 +21276,12 @@
         <v>-70605831.44689998</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>0.2554</v>
       </c>
-      <c r="J607" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21419,14 +21315,12 @@
         <v>-69711822.41689998</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>0.2557</v>
       </c>
-      <c r="J608" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21460,14 +21354,12 @@
         <v>-68436404.07989998</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>0.2558</v>
       </c>
-      <c r="J609" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21501,14 +21393,12 @@
         <v>-67203364.55489998</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I610" t="n">
         <v>0.2561</v>
       </c>
-      <c r="J610" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21542,14 +21432,12 @@
         <v>-67978712.91189997</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I611" t="n">
         <v>0.257</v>
       </c>
-      <c r="J611" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21583,14 +21471,10 @@
         <v>-66974518.97089997</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="J612" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21624,14 +21508,10 @@
         <v>-66072034.17789997</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>0.2565</v>
-      </c>
-      <c r="J613" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21665,14 +21545,10 @@
         <v>-64528000.46679997</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J614" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,9 +21585,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21748,9 +21622,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21787,9 +21659,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21826,9 +21696,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21865,9 +21733,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21901,12 +21767,10 @@
         <v>-62602642.41061781</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21943,9 +21807,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21979,12 +21841,10 @@
         <v>-60729866.72661781</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22021,9 +21881,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22060,9 +21918,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22099,9 +21955,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22138,9 +21992,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22177,9 +22029,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22216,9 +22066,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22255,9 +22103,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22294,9 +22140,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22333,9 +22177,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22372,9 +22214,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22411,9 +22251,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22450,9 +22288,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22489,9 +22325,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22528,9 +22362,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22567,9 +22399,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22606,9 +22436,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22645,9 +22473,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22684,9 +22510,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22723,9 +22547,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22762,9 +22584,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22801,9 +22621,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22840,9 +22658,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22879,9 +22695,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22918,9 +22732,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22957,9 +22769,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22996,9 +22806,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23035,9 +22843,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23074,9 +22880,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23113,9 +22917,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23152,9 +22954,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23191,9 +22991,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23230,9 +23028,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23269,9 +23065,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23308,9 +23102,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23347,9 +23139,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23386,9 +23176,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23425,9 +23213,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23464,9 +23250,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23503,9 +23287,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23542,9 +23324,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23581,9 +23361,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23620,9 +23398,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23659,9 +23435,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23698,9 +23472,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23737,9 +23509,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23776,9 +23546,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23815,9 +23583,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23854,9 +23620,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23893,9 +23657,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23932,9 +23694,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23971,9 +23731,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24010,9 +23768,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24049,9 +23805,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24088,9 +23842,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24127,9 +23879,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24166,9 +23916,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24205,9 +23953,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24244,9 +23990,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24283,9 +24027,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24319,14 +24061,10 @@
         <v>-72119628.51911977</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="n">
-        <v>0.2565</v>
-      </c>
-      <c r="J682" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24360,14 +24098,10 @@
         <v>-73556086.34211977</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>0.2586</v>
-      </c>
-      <c r="J683" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24404,9 +24138,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24443,9 +24175,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24482,9 +24212,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24518,14 +24246,10 @@
         <v>-76844675.84381978</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>0.2564</v>
-      </c>
-      <c r="J687" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24562,9 +24286,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24601,9 +24323,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24640,9 +24360,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24679,9 +24397,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24718,9 +24434,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24754,14 +24468,10 @@
         <v>-74897710.27881978</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="J693" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24795,14 +24505,10 @@
         <v>-73554485.84281978</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>0.2599</v>
-      </c>
-      <c r="J694" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24839,9 +24545,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24875,12 +24579,12 @@
         <v>-74020652.77381979</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>0.257</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.2575</v>
+      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24917,9 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24956,9 +24658,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24992,12 +24692,12 @@
         <v>-74782223.06961979</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>0.257</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.2571</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25034,9 +24734,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25073,9 +24771,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25112,9 +24808,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25151,9 +24845,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25190,9 +24882,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25229,9 +24919,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25268,9 +24956,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25307,9 +24993,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25346,9 +25030,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25385,9 +25067,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25424,9 +25104,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>0.257</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25438,6 +25116,6 @@
       <c r="M710" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest AMO.xlsx
+++ b/BackTest/2020-01-12 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8437,7 +8437,7 @@
         <v>-10010761.42219998</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13129584.46529998</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-9150888.87149998</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-8078888.83149998</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-9261073.78249998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-10977231.76449998</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-10269689.50649998</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-10040843.92149998</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-9248544.039499983</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-10388350.17849998</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-9172262.177499983</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-10422253.22749998</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-9536719.959499985</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-10490059.32649999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-11858711.05049998</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-10473107.80249999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-11994323.24849999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-13498587.17049999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-12401159.84349999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-2673247.763499986</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1185935.366499986</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2478305.228499986</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-3296032.397499986</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>3255577.149000014</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>2209004.396000014</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-8341912.388199985</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-7236009.298199985</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-5723269.614199985</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-6642705.931199985</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-7867269.694199985</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-7168203.199199985</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-7158203.199199985</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-9247154.764199985</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-10192018.36919999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-10492887.69209998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-11963248.56409998</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-19586027.96739998</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-19586027.96739998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-20564794.62139998</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-20564794.62139998</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-19035103.41239998</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-20463085.47239998</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-21763931.09639999</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-20997058.50139999</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-21746979.57139999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-29092111.45279999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-57029161.40169999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-58507998.03569999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-58330007.02569999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-57393619.18369999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-57520755.61969998</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-56663725.60429998</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14212,10 +14212,14 @@
         <v>-66733051.75829998</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
@@ -14250,7 +14254,9 @@
       <c r="I420" t="n">
         <v>0.2545</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -14289,7 +14295,9 @@
       <c r="I421" t="n">
         <v>0.2551</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14323,12 +14331,12 @@
         <v>-65202185.74499997</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14367,7 +14375,9 @@
       <c r="I423" t="n">
         <v>0.2547</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14406,7 +14416,9 @@
       <c r="I424" t="n">
         <v>0.2548</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14445,7 +14457,9 @@
       <c r="I425" t="n">
         <v>0.2554</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14479,12 +14493,12 @@
         <v>-60931137.10899997</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="J426" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14523,7 +14537,9 @@
       <c r="I427" t="n">
         <v>0.2557</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14562,7 +14578,9 @@
       <c r="I428" t="n">
         <v>0.2546</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14601,7 +14619,9 @@
       <c r="I429" t="n">
         <v>0.2549</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14640,7 +14660,9 @@
       <c r="I430" t="n">
         <v>0.2546</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14679,7 +14701,9 @@
       <c r="I431" t="n">
         <v>0.2564</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,7 +14742,9 @@
       <c r="I432" t="n">
         <v>0.2551</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14752,10 +14778,14 @@
         <v>-60274081.62299997</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.2557</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14789,12 +14819,12 @@
         <v>-61419813.85309997</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,7 +14863,9 @@
       <c r="I435" t="n">
         <v>0.2544</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,7 +14904,9 @@
       <c r="I436" t="n">
         <v>0.2548</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14911,7 +14945,9 @@
       <c r="I437" t="n">
         <v>0.2554</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14945,12 +14981,12 @@
         <v>-59377522.92109998</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>0.2563</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,7 +15025,9 @@
       <c r="I439" t="n">
         <v>0.2554</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15023,12 +15061,12 @@
         <v>-61525329.68049998</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15067,7 +15105,9 @@
       <c r="I441" t="n">
         <v>0.2551</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15101,12 +15141,12 @@
         <v>-62033875.42349998</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15140,12 +15180,12 @@
         <v>-60605893.36349998</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15179,12 +15219,12 @@
         <v>-61906738.98749997</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15218,12 +15258,12 @@
         <v>-61139866.39249998</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15260,7 +15300,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15297,7 +15339,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15334,7 +15378,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15371,7 +15417,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15408,7 +15456,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15445,7 +15495,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15482,7 +15534,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15516,12 +15570,12 @@
         <v>-61558448.13449998</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15555,12 +15609,12 @@
         <v>-62554166.31349998</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>0.2567</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,12 +15648,12 @@
         <v>-63422748.05649998</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>0.2561</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15633,12 +15687,12 @@
         <v>-62588069.36249998</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15672,12 +15726,12 @@
         <v>-61778817.95649998</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,12 +15765,12 @@
         <v>-63215275.77949998</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>0.2559</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,12 +15804,12 @@
         <v>-61795769.48149998</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
         <v>0.255</v>
       </c>
-      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15792,7 +15846,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15826,12 +15882,12 @@
         <v>-61889002.86749998</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>0.2555</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15865,12 +15921,12 @@
         <v>-62647399.69949998</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15904,12 +15960,12 @@
         <v>-61931381.67949998</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
         <v>0.255</v>
       </c>
-      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15943,12 +15999,12 @@
         <v>-60901760.45149998</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15985,7 +16041,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16019,12 +16077,12 @@
         <v>-61571345.67949998</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16058,12 +16116,12 @@
         <v>-62533160.80849998</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16097,12 +16155,12 @@
         <v>-63876385.24449997</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16136,12 +16194,12 @@
         <v>-65143327.81949998</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16175,12 +16233,12 @@
         <v>-64342552.17549998</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16214,12 +16272,12 @@
         <v>-63499397.71949998</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16253,12 +16311,12 @@
         <v>-64901952.49249998</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16292,12 +16350,12 @@
         <v>-66397740.65149998</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>0.2563</v>
-      </c>
-      <c r="J473" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16331,12 +16389,12 @@
         <v>-65486780.09649998</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>0.2552</v>
-      </c>
-      <c r="J474" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16370,12 +16428,12 @@
         <v>-66745246.90949998</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>0.2558</v>
-      </c>
-      <c r="J475" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16409,12 +16467,12 @@
         <v>-63549480.39499998</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="J476" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16448,12 +16506,12 @@
         <v>-64680810.77199998</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="J477" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16487,12 +16545,12 @@
         <v>-65795189.62399998</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16526,12 +16584,12 @@
         <v>-64670395.00999998</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>0.2553</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16568,7 +16626,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16605,7 +16665,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16642,7 +16704,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16679,7 +16743,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16716,7 +16782,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16753,7 +16821,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16790,7 +16860,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16827,7 +16899,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16864,7 +16938,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16901,7 +16977,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16938,7 +17016,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16975,7 +17055,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17012,7 +17094,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17049,7 +17133,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17086,7 +17172,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17123,7 +17211,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17160,7 +17250,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17197,7 +17289,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17234,7 +17328,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17271,7 +17367,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17308,7 +17406,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17345,7 +17445,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17382,7 +17484,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,7 +17523,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17456,7 +17562,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17493,7 +17601,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17530,7 +17640,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,7 +17679,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,7 +17718,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17641,7 +17757,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17678,7 +17796,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17715,7 +17835,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17752,7 +17874,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17789,7 +17913,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17826,7 +17952,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17863,7 +17991,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17900,7 +18030,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17937,7 +18069,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17974,7 +18108,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18011,7 +18147,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18048,7 +18186,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18082,17 +18222,19 @@
         <v>-75662524.86749995</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>0.255</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L521" t="n">
-        <v>1</v>
+        <v>1.001274509803922</v>
       </c>
       <c r="M521" t="inlineStr"/>
     </row>
@@ -18123,11 +18265,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18156,15 +18294,11 @@
         <v>-74139331.35669996</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18193,15 +18327,11 @@
         <v>-75643595.27869996</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18230,15 +18360,11 @@
         <v>-74546167.95169996</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18397,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18304,15 +18426,11 @@
         <v>-75105568.26869996</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18345,11 +18463,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18382,11 +18496,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18419,11 +18529,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18456,11 +18562,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18493,11 +18595,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18530,11 +18628,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18567,11 +18661,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18604,11 +18694,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18641,11 +18727,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18678,11 +18760,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18715,11 +18793,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18752,11 +18826,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18789,11 +18859,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18826,11 +18892,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18863,11 +18925,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18900,11 +18958,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18937,11 +18991,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18974,11 +19024,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19011,11 +19057,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19048,11 +19090,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19085,11 +19123,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19122,11 +19156,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19159,11 +19189,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19196,11 +19222,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19233,11 +19255,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19270,11 +19288,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19307,11 +19321,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19344,11 +19354,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19381,11 +19387,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19418,11 +19420,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19455,11 +19453,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +19486,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19529,11 +19519,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19566,11 +19552,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19603,11 +19585,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19640,11 +19618,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19677,11 +19651,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19714,11 +19684,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19751,11 +19717,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19788,11 +19750,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19825,11 +19783,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19862,11 +19816,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19899,11 +19849,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19936,11 +19882,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19973,11 +19915,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20010,11 +19948,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20047,11 +19981,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20084,11 +20014,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20121,11 +20047,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20158,11 +20080,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20195,11 +20113,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20232,11 +20146,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20269,11 +20179,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20306,11 +20212,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20343,11 +20245,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20380,11 +20278,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20417,11 +20311,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20454,11 +20344,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20491,11 +20377,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20528,11 +20410,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20565,11 +20443,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20602,11 +20476,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20639,11 +20509,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20676,11 +20542,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20709,17 +20571,11 @@
         <v>-73414994.97289997</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20752,11 +20608,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20785,17 +20637,11 @@
         <v>-73406519.21089998</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>0.2559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20828,11 +20674,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20861,17 +20703,11 @@
         <v>-73677743.60689998</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20904,11 +20740,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20941,11 +20773,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20978,11 +20806,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21015,11 +20839,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21052,11 +20872,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21085,17 +20901,11 @@
         <v>-73355664.63589998</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>0.2569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21128,11 +20938,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21161,17 +20967,11 @@
         <v>-71262519.12989998</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>0.2566</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21204,11 +21004,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21237,17 +21033,11 @@
         <v>-71762589.11089998</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>0.2553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21276,17 +21066,11 @@
         <v>-70605831.44689998</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>0.2554</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21315,17 +21099,11 @@
         <v>-69711822.41689998</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>0.2557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21354,17 +21132,11 @@
         <v>-68436404.07989998</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>0.2558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21393,17 +21165,11 @@
         <v>-67203364.55489998</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>0.2561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21432,17 +21198,11 @@
         <v>-67978712.91189997</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>0.257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21475,11 +21235,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21512,11 +21268,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21549,11 +21301,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21586,11 +21334,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21623,11 +21367,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21660,11 +21400,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21697,11 +21433,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21734,11 +21466,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21771,11 +21499,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21808,11 +21532,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21845,11 +21565,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21882,11 +21598,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21919,11 +21631,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21956,11 +21664,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21993,11 +21697,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22030,11 +21730,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22067,11 +21763,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22104,11 +21796,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22141,11 +21829,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22178,11 +21862,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22215,11 +21895,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22252,11 +21928,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22289,11 +21961,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22326,11 +21994,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +22027,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22400,11 +22060,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22437,11 +22093,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22474,11 +22126,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22511,11 +22159,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22548,11 +22192,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22585,11 +22225,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22622,11 +22258,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22659,11 +22291,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22696,11 +22324,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22733,11 +22357,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22770,11 +22390,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22807,11 +22423,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22844,11 +22456,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22881,11 +22489,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22918,11 +22522,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22955,11 +22555,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22992,11 +22588,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23029,11 +22621,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23066,11 +22654,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23103,11 +22687,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23140,11 +22720,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23177,11 +22753,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23210,15 +22782,11 @@
         <v>-72757907.18650147</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23247,15 +22815,11 @@
         <v>-73846858.75150147</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23284,15 +22848,11 @@
         <v>-72882591.73680148</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23321,15 +22881,11 @@
         <v>-74352952.60880147</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23362,11 +22918,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23399,11 +22951,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23436,11 +22984,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23473,11 +23017,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23510,11 +23050,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23547,11 +23083,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23116,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23621,11 +23149,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23658,11 +23182,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23695,11 +23215,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23732,11 +23248,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23769,11 +23281,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23802,15 +23310,15 @@
         <v>-71106958.81411976</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0.2561</v>
+      </c>
+      <c r="J675" t="n">
+        <v>0.2561</v>
+      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23842,10 +23350,12 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>0.2561</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -23879,10 +23389,12 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>0.2561</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L677" t="n">
@@ -23917,11 +23429,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23954,11 +23462,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23991,11 +23495,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24028,11 +23528,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24065,11 +23561,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24102,11 +23594,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24139,11 +23627,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24176,11 +23660,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24213,11 +23693,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24250,11 +23726,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24287,11 +23759,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24324,11 +23792,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24361,11 +23825,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24398,11 +23858,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24435,11 +23891,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24472,11 +23924,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24509,11 +23957,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24546,11 +23990,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24579,17 +24019,11 @@
         <v>-74020652.77381979</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>0.2575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24622,11 +24056,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24659,11 +24089,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24692,17 +24118,11 @@
         <v>-74782223.06961979</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>0.2571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24735,11 +24155,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24188,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24809,11 +24221,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24846,11 +24254,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24883,11 +24287,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24920,11 +24320,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24957,11 +24353,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24994,11 +24386,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25031,11 +24419,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25068,11 +24452,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25105,17 +24485,13 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
       <c r="M710" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest AMO.xlsx
+++ b/BackTest/2020-01-12 BackTest AMO.xlsx
@@ -10549,7 +10549,7 @@
         <v>-2478305.228499986</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>2209004.396000014</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>3221674.100000014</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>2370043.882000014</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-6197754.447199985</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-5507163.714199985</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-8341912.388199985</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-7236009.298199985</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-5723269.614199985</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-6642705.931199985</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-7867269.694199985</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-7158203.199199985</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-9247154.764199985</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-10192018.36919999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -14212,14 +14212,10 @@
         <v>-66733051.75829998</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="J419" t="n">
-        <v>0.255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
@@ -14249,19 +14245,11 @@
         <v>-64981815.92299998</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="J420" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14290,19 +14278,11 @@
         <v>-63994573.50699998</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="J421" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14334,14 +14314,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14370,19 +14344,11 @@
         <v>-64155612.99199998</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="J423" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14411,19 +14377,11 @@
         <v>-63142943.28799997</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="J424" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14452,19 +14410,11 @@
         <v>-62291313.06999997</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="J425" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14496,14 +14446,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14532,19 +14476,11 @@
         <v>-61621727.84199997</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="J427" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14573,19 +14509,11 @@
         <v>-60286979.16799997</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J428" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14614,19 +14542,11 @@
         <v>-61392882.25799997</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J429" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14655,19 +14575,11 @@
         <v>-59880142.57399997</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J430" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14696,19 +14608,11 @@
         <v>-60799578.89099997</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>0.2564</v>
-      </c>
-      <c r="J431" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14737,19 +14641,11 @@
         <v>-59575015.12799998</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="J432" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14778,19 +14674,11 @@
         <v>-60274081.62299997</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>0.2557</v>
-      </c>
-      <c r="J433" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14822,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14858,19 +14740,11 @@
         <v>-60330862.28809997</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="J435" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14899,19 +14773,11 @@
         <v>-59385998.68309998</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="J436" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14940,19 +14806,11 @@
         <v>-57915637.81109998</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="J437" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14984,14 +14842,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15020,19 +14872,11 @@
         <v>-58517416.94009998</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="J439" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15064,14 +14908,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15100,19 +14938,11 @@
         <v>-60504184.21449998</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>0.2551</v>
-      </c>
-      <c r="J441" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15144,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15183,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15222,14 +15040,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15261,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15300,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15339,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15378,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15417,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15456,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15495,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15534,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15573,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15612,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15651,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15690,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15729,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15768,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15807,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15846,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15885,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15924,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15963,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16002,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16041,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16080,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16119,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16155,17 +15829,15 @@
         <v>-63876385.24449997</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.2556</v>
+      </c>
       <c r="J468" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2556</v>
+      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16194,15 +15866,17 @@
         <v>-65143327.81949998</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.2547</v>
+      </c>
       <c r="J469" t="n">
-        <v>0.255</v>
+        <v>0.2556</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L469" t="n">
@@ -16233,15 +15907,17 @@
         <v>-64342552.17549998</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.2546</v>
+      </c>
       <c r="J470" t="n">
-        <v>0.255</v>
+        <v>0.2556</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L470" t="n">
@@ -16272,17 +15948,15 @@
         <v>-63499397.71949998</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.2558</v>
+      </c>
       <c r="J471" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2558</v>
+      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16311,15 +15985,17 @@
         <v>-64901952.49249998</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.2566</v>
+      </c>
       <c r="J472" t="n">
-        <v>0.255</v>
+        <v>0.2558</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L472" t="n">
@@ -16350,15 +16026,17 @@
         <v>-66397740.65149998</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.2563</v>
+      </c>
       <c r="J473" t="n">
-        <v>0.255</v>
+        <v>0.2558</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L473" t="n">
@@ -16389,17 +16067,15 @@
         <v>-65486780.09649998</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.2552</v>
+      </c>
       <c r="J474" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2552</v>
+      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16428,15 +16104,17 @@
         <v>-66745246.90949998</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.2558</v>
+      </c>
       <c r="J475" t="n">
-        <v>0.255</v>
+        <v>0.2552</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L475" t="n">
@@ -16467,15 +16145,17 @@
         <v>-63549480.39499998</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.2557</v>
+      </c>
       <c r="J476" t="n">
-        <v>0.255</v>
+        <v>0.2552</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L476" t="n">
@@ -16509,14 +16189,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16545,17 +16219,15 @@
         <v>-65795189.62399998</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.2557</v>
+      </c>
       <c r="J478" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2557</v>
+      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16584,15 +16256,17 @@
         <v>-64670395.00999998</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.2553</v>
+      </c>
       <c r="J479" t="n">
-        <v>0.255</v>
+        <v>0.2557</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L479" t="n">
@@ -16627,11 +16301,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>0.255</v>
+        <v>0.2557</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L480" t="n">
@@ -16665,14 +16339,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16704,14 +16372,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16743,14 +16405,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16782,14 +16438,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16821,14 +16471,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16860,14 +16504,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16899,14 +16537,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16938,14 +16570,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16977,14 +16603,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17016,14 +16636,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17055,14 +16669,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17094,14 +16702,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17133,14 +16735,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17172,14 +16768,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17211,14 +16801,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17250,14 +16834,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17289,14 +16867,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17328,14 +16900,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17367,14 +16933,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17406,14 +16966,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17445,14 +16999,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17484,14 +17032,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17523,14 +17065,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17562,14 +17098,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17601,14 +17131,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17640,14 +17164,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17679,14 +17197,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17718,14 +17230,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17757,14 +17263,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17796,14 +17296,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17835,14 +17329,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17874,14 +17362,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17913,14 +17395,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17952,14 +17428,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17991,14 +17461,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18030,14 +17494,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18069,14 +17527,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18108,14 +17560,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18147,14 +17593,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18186,14 +17626,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18222,19 +17656,13 @@
         <v>-75662524.86749995</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
-        <v>1.001274509803922</v>
+        <v>1</v>
       </c>
       <c r="M521" t="inlineStr"/>
     </row>
@@ -18294,7 +17722,7 @@
         <v>-74139331.35669996</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18327,7 +17755,7 @@
         <v>-75643595.27869996</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18360,7 +17788,7 @@
         <v>-74546167.95169996</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18426,7 +17854,7 @@
         <v>-75105568.26869996</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20538,10 +19966,14 @@
         <v>-72283664.59589997</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J591" t="n">
+        <v>0.2569</v>
+      </c>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
@@ -20571,11 +20003,19 @@
         <v>-73414994.97289997</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20604,11 +20044,19 @@
         <v>-74529373.82489997</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="J593" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20637,10 +20085,14 @@
         <v>-73406519.21089998</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.2559</v>
+      </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
@@ -20670,11 +20122,19 @@
         <v>-72326043.40789998</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.2561</v>
+      </c>
+      <c r="J595" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20703,11 +20163,19 @@
         <v>-73677743.60689998</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20736,10 +20204,14 @@
         <v>-72393849.50689998</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.2561</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0.2561</v>
+      </c>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
@@ -20769,11 +20241,19 @@
         <v>-73838783.09189998</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.2573</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0.2561</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20805,8 +20285,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>0.2561</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20835,10 +20321,14 @@
         <v>-73542131.40789998</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0.2553</v>
+      </c>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
@@ -20868,11 +20358,19 @@
         <v>-72165003.92189997</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="J601" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20901,11 +20399,19 @@
         <v>-73355664.63589998</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.2569</v>
+      </c>
+      <c r="J602" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20934,10 +20440,14 @@
         <v>-72317567.64489998</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0.2557</v>
+      </c>
+      <c r="J603" t="n">
+        <v>0.2557</v>
+      </c>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
@@ -20967,11 +20477,19 @@
         <v>-71262519.12989998</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0.2557</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21000,11 +20518,19 @@
         <v>-72588792.04189998</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0.2572</v>
+      </c>
+      <c r="J605" t="n">
+        <v>0.2557</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21033,10 +20559,14 @@
         <v>-71762589.11089998</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="J606" t="n">
+        <v>0.2553</v>
+      </c>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
@@ -21066,11 +20596,19 @@
         <v>-70605831.44689998</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="J607" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21099,11 +20637,19 @@
         <v>-69711822.41689998</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0.2557</v>
+      </c>
+      <c r="J608" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21132,10 +20678,14 @@
         <v>-68436404.07989998</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0.2558</v>
+      </c>
+      <c r="J609" t="n">
+        <v>0.2558</v>
+      </c>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
@@ -21165,11 +20715,19 @@
         <v>-67203364.55489998</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0.2561</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0.2558</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21198,11 +20756,19 @@
         <v>-67978712.91189997</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="J611" t="n">
+        <v>0.2558</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21231,10 +20797,14 @@
         <v>-66974518.97089997</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0.256</v>
+      </c>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
@@ -21264,11 +20834,19 @@
         <v>-66072034.17789997</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0.2565</v>
+      </c>
+      <c r="J613" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21297,11 +20875,19 @@
         <v>-64528000.46679997</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22782,7 +22368,7 @@
         <v>-72757907.18650147</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22815,7 +22401,7 @@
         <v>-73846858.75150147</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22848,7 +22434,7 @@
         <v>-72882591.73680148</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22881,7 +22467,7 @@
         <v>-74352952.60880147</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23310,14 +22896,10 @@
         <v>-71106958.81411976</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>0.2561</v>
-      </c>
-      <c r="J675" t="n">
-        <v>0.2561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
@@ -23350,14 +22932,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>0.2561</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23389,14 +22965,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>0.2561</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
